--- a/New_Class_Data.xlsx
+++ b/New_Class_Data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,29 +468,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시107</t>
+          <t>예시202</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>수업 방해</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시109</t>
+          <t>예시204</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시204</t>
+          <t>예시205</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -501,29 +505,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시205</t>
+          <t>예시302</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시208</t>
+          <t>예시306</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시302</t>
+          <t>예시307</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -534,18 +538,18 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시304</t>
+          <t>예시405</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시403</t>
+          <t>예시410</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -556,33 +560,33 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시405</t>
+          <t>예시502</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시504</t>
+          <t>예시607</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시505</t>
+          <t>예시609</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -606,7 +610,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시118</t>
+          <t>예시113</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -617,7 +621,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시119</t>
+          <t>예시115</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -628,7 +632,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시215</t>
+          <t>예시213</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -639,7 +643,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시219</t>
+          <t>예시215</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -650,7 +654,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시223</t>
+          <t>예시219</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -661,123 +665,138 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시313</t>
+          <t>예시220</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시413</t>
+          <t>예시311</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시415</t>
+          <t>예시315</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>예시422</t>
+          <t>예시316</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>예시511</t>
+          <t>예시321</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>예시513</t>
+          <t>예시412</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>공격적</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>예시522</t>
+          <t>예시415</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>예시613</t>
+          <t>예시419</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>예시616</t>
+          <t>예시422</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>예시617</t>
+          <t>예시513</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>예시623</t>
+          <t>예시617</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>6</v>
       </c>
       <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>예시621</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -829,7 +848,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시108</t>
+          <t>예시110</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -840,7 +859,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시210</t>
+          <t>예시207</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -851,29 +870,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시303</t>
+          <t>예시209</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시305</t>
+          <t>예시210</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시306</t>
+          <t>예시301</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -884,7 +903,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시307</t>
+          <t>예시303</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -895,7 +914,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시310</t>
+          <t>예시309</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -906,7 +925,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시410</t>
+          <t>예시403</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -917,29 +936,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시502</t>
+          <t>예시406</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시507</t>
+          <t>예시602</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시610</t>
+          <t>예시606</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -967,7 +986,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시112</t>
+          <t>예시120</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -978,7 +997,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시114</t>
+          <t>예시122</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -989,117 +1008,121 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시121</t>
+          <t>예시317</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>알레르기</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시123</t>
+          <t>예시319</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시212</t>
+          <t>예시320</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시312</t>
+          <t>예시411</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시314</t>
+          <t>예시417</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시321</t>
+          <t>예시420</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>예시323</t>
+          <t>예시423</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>예시414</t>
+          <t>예시512</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>예시419</t>
+          <t>예시517</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>예시423</t>
+          <t>예시518</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>예시520</t>
+          <t>예시522</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1110,22 +1133,18 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>예시611</t>
+          <t>예시523</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>소극적</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>예시621</t>
+          <t>예시613</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1136,7 +1155,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>예시622</t>
+          <t>예시615</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1194,7 +1213,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시110</t>
+          <t>예시104</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1205,62 +1224,62 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시201</t>
+          <t>예시107</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시207</t>
+          <t>예시108</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시301</t>
+          <t>예시201</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시406</t>
+          <t>예시304</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시407</t>
+          <t>예시308</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시408</t>
+          <t>예시402</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1271,7 +1290,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시503</t>
+          <t>예시504</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1282,18 +1301,18 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시508</t>
+          <t>예시601</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시602</t>
+          <t>예시603</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1304,7 +1323,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시605</t>
+          <t>예시608</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1332,7 +1351,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시115</t>
+          <t>예시116</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1343,7 +1362,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시117</t>
+          <t>예시118</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1354,18 +1373,18 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시122</t>
+          <t>예시212</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시211</t>
+          <t>예시214</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1376,7 +1395,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시218</t>
+          <t>예시216</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1387,22 +1406,18 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시317</t>
+          <t>예시223</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>알레르기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시318</t>
+          <t>예시322</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1413,51 +1428,51 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시319</t>
+          <t>예시416</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>예시322</t>
+          <t>예시421</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>예시416</t>
+          <t>예시511</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>예시417</t>
+          <t>예시514</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>예시518</t>
+          <t>예시516</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1479,22 +1494,18 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>예시521</t>
+          <t>예시614</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>도벽</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>예시614</t>
+          <t>예시616</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1505,7 +1516,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>예시615</t>
+          <t>예시619</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1524,7 +1535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1552,33 +1563,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시106</t>
+          <t>예시206</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시202</t>
+          <t>예시305</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>수업 방해</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시308</t>
+          <t>예시310</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1600,7 +1607,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시404</t>
+          <t>예시407</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1611,18 +1618,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시509</t>
+          <t>예시409</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시510</t>
+          <t>예시501</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1633,40 +1640,40 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시601</t>
+          <t>예시506</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시603</t>
+          <t>예시507</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시606</t>
+          <t>예시509</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시607</t>
+          <t>예시605</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1677,7 +1684,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시609</t>
+          <t>예시610</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1705,7 +1712,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시111</t>
+          <t>예시112</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1716,7 +1723,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시113</t>
+          <t>예시114</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1727,7 +1734,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시116</t>
+          <t>예시123</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1738,7 +1745,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시213</t>
+          <t>예시211</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1749,7 +1756,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시216</t>
+          <t>예시218</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1760,62 +1767,62 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시220</t>
+          <t>예시312</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시221</t>
+          <t>예시314</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시222</t>
+          <t>예시323</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>예시315</t>
+          <t>예시414</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>예시316</t>
+          <t>예시515</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>예시514</t>
+          <t>예시520</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1826,46 +1833,39 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>예시517</t>
+          <t>예시611</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>소극적</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>예시523</t>
+          <t>예시620</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>예시618</t>
+          <t>예시623</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>6</v>
       </c>
       <c r="C30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>예시619</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>6</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1906,44 +1906,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시104</t>
+          <t>예시105</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>집중 못함</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시105</t>
+          <t>예시106</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>집중 못함</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시203</t>
+          <t>예시109</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시206</t>
+          <t>예시203</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1954,7 +1954,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시209</t>
+          <t>예시208</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1965,18 +1965,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시309</t>
+          <t>예시404</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시402</t>
+          <t>예시408</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1987,18 +1987,18 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시409</t>
+          <t>예시503</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시501</t>
+          <t>예시505</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2009,7 +2009,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시506</t>
+          <t>예시508</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2020,18 +2020,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시604</t>
+          <t>예시510</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시608</t>
+          <t>예시604</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2059,7 +2059,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시120</t>
+          <t>예시111</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2070,99 +2070,95 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시214</t>
+          <t>예시117</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시217</t>
+          <t>예시119</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시311</t>
+          <t>예시121</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시320</t>
+          <t>예시217</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시411</t>
+          <t>예시221</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시412</t>
+          <t>예시222</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>공격적</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시418</t>
+          <t>예시313</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>예시420</t>
+          <t>예시318</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>예시421</t>
+          <t>예시413</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2173,40 +2169,44 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>예시512</t>
+          <t>예시418</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>예시515</t>
+          <t>예시521</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>5</v>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>도벽</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>예시516</t>
+          <t>예시612</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>예시612</t>
+          <t>예시618</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2217,7 +2217,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>예시620</t>
+          <t>예시622</t>
         </is>
       </c>
       <c r="B31" t="n">
